--- a/Project1/Product Backlog(Final-Revision).xlsx
+++ b/Project1/Product Backlog(Final-Revision).xlsx
@@ -5,34 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunnyfashion\Documents\SMU\Software Dev 5510\Assignment 1\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF3F4BD-3C21-4BF8-B2A5-B88757C6EBC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53C776A-1D06-46F7-9B91-901A44ADFFE5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog - Meeting 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog 1" sheetId="2" r:id="rId2"/>
     <sheet name="Product Backlog - Meeting 2" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint Backlog 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Team Members" sheetId="7" r:id="rId5"/>
+    <sheet name="Product Backlog - Meeting 3" sheetId="8" r:id="rId5"/>
+    <sheet name="Sprint Backlog 3" sheetId="9" r:id="rId6"/>
+    <sheet name="Team Members" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
   <si>
     <t>As a hotel owner I want a payment details portal so that I can assist my customers</t>
   </si>
@@ -357,12 +356,114 @@
       <t xml:space="preserve"> payments and sort according to different date conditions</t>
     </r>
   </si>
+  <si>
+    <t>As a customer I want to see my previous bookings so that I can see what I paid (compare prices)</t>
+  </si>
+  <si>
+    <t>As a customer I want to get an email notification of payment so that I can have proof of payment</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want to see the restaurant menu so that customers will know what food options there are</t>
+  </si>
+  <si>
+    <t>As a customer I want to have an option to book a meeting hall so that I can online book an event</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want a special role so that I can have different access for different users (admin/users)</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want to implement a live chat for employees so that I can assist my customers in real time</t>
+  </si>
+  <si>
+    <t>As a customer I want to schedue an airport pickup so that I be picked up by the hotel airport shuttle</t>
+  </si>
+  <si>
+    <t>As a customer I want to re-schedue an airport pickup so that I be picked up by the hotel airport shuttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define and build database schema to store payment info </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful integration with service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful generation of reports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate report </t>
+  </si>
+  <si>
+    <t>Build a form to collect customer login information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that login details exists in the database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a (Previous Bookings) button to the customer accounts page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define and build a method to print out previous bookings and order by prices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful viewing of previous bookings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate with the existing service </t>
+  </si>
+  <si>
+    <t>Define and build (Email Notifications) API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual testing with Postman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful integrations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful emails sent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate API with existing Payment API </t>
+  </si>
+  <si>
+    <t>Invoke API after payment process is completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquire all the images for the food options </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload the food options with images to the webpage </t>
+  </si>
+  <si>
+    <t>Integrate webpage with existing website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and build a webpage UI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful upload of all the food options </t>
+  </si>
+  <si>
+    <t>User approved UI</t>
+  </si>
+  <si>
+    <t>User testing - Nice look and feel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build up a performance test to look up data according to different conditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build a reports view (UI) </t>
+  </si>
+  <si>
+    <t>Build API to export data to reporting engine and sort according to different criteria</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,8 +485,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,18 +519,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
@@ -424,12 +535,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -563,24 +674,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -593,14 +746,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,17 +759,987 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
+  <dxfs count="100">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -630,6 +1751,339 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -689,30 +2143,30 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1003,28 +2457,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1067,19 +2499,17 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1094,187 +2524,38 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1341,12 +2622,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1369,128 +2644,202 @@
     <tableColumn id="3" xr3:uid="{47BD32F7-F67E-491A-BC3F-2BAEEDAD8683}" name="Effort"/>
     <tableColumn id="4" xr3:uid="{A8A219A1-31D3-43B2-B299-D018D65D65A1}" name="ROI"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2605D949-0F02-4EB3-B072-EA7F18FBDB71}" name="Table8" displayName="Table8" ref="A1:D5" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2605D949-0F02-4EB3-B072-EA7F18FBDB71}" name="Table8" displayName="Table8" ref="A1:D5" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
   <autoFilter ref="A1:D5" xr:uid="{D640FEED-ADC7-4A3C-B4A2-11B216CB9671}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B6ABDECB-8723-4A4D-A519-4753DC546751}" name="Product Backlog" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2A999E80-31ED-41BB-9D65-6AA2A1FAB463}" name="Avg Bus V" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{773CD4CB-8BFA-4044-97E9-AABBEF11858C}" name="Avg Effort" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{EB6BA28E-2CD8-44F5-996A-9C5DD9E8BBD8}" name="ROI" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{B6ABDECB-8723-4A4D-A519-4753DC546751}" name="Product Backlog" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{2A999E80-31ED-41BB-9D65-6AA2A1FAB463}" name="Avg Bus V" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{773CD4CB-8BFA-4044-97E9-AABBEF11858C}" name="Avg Effort" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{EB6BA28E-2CD8-44F5-996A-9C5DD9E8BBD8}" name="ROI" dataDxfId="74">
       <calculatedColumnFormula>B2/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{69543670-C5BB-49CF-B567-C8FC13E8CCFB}" name="Table10" displayName="Table10" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4615C903-3369-4B9A-8A6C-51AAB471E7C9}" name="Table713" displayName="Table713" ref="A1:D22" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+  <autoFilter ref="A1:D22" xr:uid="{64BDA478-CCE0-4BA2-AF09-9B692BD0FE7E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1B52CB37-E945-454D-B973-EA022C949E65}" name="Product Backlog" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{3FE2C99A-AD1A-4257-B86A-42EEDF19573C}" name="Bus Value" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{D0A7685C-1340-45B4-B5F9-BF12A505802B}" name="Effort" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{1CB7B1A7-4A62-46BD-9325-BAB42A224436}" name="ROI" dataDxfId="66">
+      <calculatedColumnFormula>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D8CC0A1A-CAA1-4748-A7F9-7151E8369CCB}" name="Table18" displayName="Table18" ref="A27:B38" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="65">
+  <autoFilter ref="A27:B38" xr:uid="{16B6BBB2-DD42-4F4B-863C-5EC3BD610DF9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8911936A-4795-4575-B3F9-D51F19CC5AEC}" name="Tasks" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4B9F1ECA-1DA1-412C-B689-93B3C0C3B23F}" name="Effort" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{703B988F-8A15-41D7-AAFF-BF9299E42A1C}" name="Table19" displayName="Table19" ref="A42:B50" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+  <autoFilter ref="A42:B50" xr:uid="{138CDBB9-DAAD-4444-BF77-27C15A15F2D1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{167500EF-A4F0-4F7F-BBA1-92FA7ADB94ED}" name="Tasks" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{D57AA5BD-EBDB-47FB-B1C1-6411DE08CAE3}" name="Effort" dataDxfId="59"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DAAC4AF8-F47C-42A7-B40C-2E0FFED17374}" name="Table13" displayName="Table13" ref="A1:D5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+  <autoFilter ref="A1:D5" xr:uid="{9FFAEB3A-9628-4CEF-A1F7-11FD9D4C481B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{53D2F6F9-BF54-4A6D-8489-4692CC981169}" name="Product Backlog" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6D5C4AEF-BBDD-4E92-903E-DB30BC4F5A19}" name="Bus Value" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{30914107-59DA-4D50-83C0-313615FD4C5E}" name="Effort" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{85F63D77-0B65-4351-9108-0132E235EF3B}" name="ROI" dataDxfId="11">
+      <calculatedColumnFormula>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F055E82E-9C0D-4BD1-9502-17458C75C5B3}" name="Table14" displayName="Table14" ref="A11:B23" totalsRowShown="0" headerRowDxfId="46" tableBorderDxfId="49">
+  <autoFilter ref="A11:B23" xr:uid="{18436C04-E0B5-4322-8990-B72039FEAA35}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8735EA2C-CEE0-40C0-9E82-79A8BBBB2A0A}" name="Tasks" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{58C91BB1-37F4-4036-AD79-96617CA66459}" name="Effort" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{131028CA-45F1-4DCC-9D4F-8F7E688148E8}" name="Table15" displayName="Table15" ref="A54:B64" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A54:B64" xr:uid="{4EE30F3D-A62A-4EC5-BC30-1D502B7CF619}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{07736874-D209-434D-9593-DD24B89E34BC}" name="Tasks" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{55F7558F-AB57-4927-8B97-50FAACC605B5}" name="Effort" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{69543670-C5BB-49CF-B567-C8FC13E8CCFB}" name="Table10" displayName="Table10" ref="A1:C6" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A1:C6" xr:uid="{ED60B849-980A-4330-A1BA-88AFAF734F06}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0F4034D6-6D14-45A1-BD91-2FB28ED29698}" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F27630-BB0A-4A69-94FB-60281BC3CD1F}" name="A#" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4C1A9A26-EA4F-4795-B85A-237B0C97ED63}" name="Role" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D7F27630-BB0A-4A69-94FB-60281BC3CD1F}" name="A#" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4C1A9A26-EA4F-4795-B85A-237B0C97ED63}" name="Role" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A11:B26" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A11:B26" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
   <autoFilter ref="A11:B26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tasks"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Effort"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tasks" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Effort" dataDxfId="39"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2ADBD426-156B-433E-9FFF-C433DFC962D3}" name="Table9" displayName="Table9" ref="A29:B39" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2ADBD426-156B-433E-9FFF-C433DFC962D3}" name="Table9" displayName="Table9" ref="A29:B39" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
   <autoFilter ref="A29:B39" xr:uid="{CAF3D162-4F4F-456E-B957-6D155D682EAB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{171E5274-4074-4DC9-A409-3E7858B25E12}" name="Tasks"/>
-    <tableColumn id="2" xr3:uid="{86579749-C904-4F07-992C-F9E7F5429678}" name="Effort"/>
+    <tableColumn id="1" xr3:uid="{171E5274-4074-4DC9-A409-3E7858B25E12}" name="Tasks" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{86579749-C904-4F07-992C-F9E7F5429678}" name="Effort" dataDxfId="25"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4923F359-9D21-476D-844A-6D5FC98560E7}" name="Table11" displayName="Table11" ref="A1:D3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4923F359-9D21-476D-844A-6D5FC98560E7}" name="Table11" displayName="Table11" ref="A1:D3" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
   <autoFilter ref="A1:D3" xr:uid="{8829136D-C44B-4C5C-9215-773409D1E8C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{64879C13-769B-41BC-B9A9-576A59AA2883}" name="Product Backlog"/>
-    <tableColumn id="2" xr3:uid="{A82D07D4-81F8-4281-88AD-73FDEA58BC05}" name="Avg Bus V"/>
-    <tableColumn id="3" xr3:uid="{E52E422B-5885-4EAE-AFEE-8831AA72155C}" name="Avg Effort"/>
-    <tableColumn id="4" xr3:uid="{A44159B0-014B-499F-A53A-89A10AFA1B75}" name="ROI"/>
+    <tableColumn id="1" xr3:uid="{64879C13-769B-41BC-B9A9-576A59AA2883}" name="Product Backlog" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{A82D07D4-81F8-4281-88AD-73FDEA58BC05}" name="Avg Bus V" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{E52E422B-5885-4EAE-AFEE-8831AA72155C}" name="Avg Effort" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{A44159B0-014B-499F-A53A-89A10AFA1B75}" name="ROI" dataDxfId="31"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{037B6215-936A-44E1-B3B0-3E72A9945368}" name="Table7" displayName="Table7" ref="A1:D18" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{037B6215-936A-44E1-B3B0-3E72A9945368}" name="Table7" displayName="Table7" ref="A1:D18" totalsRowShown="0" headerRowDxfId="99" dataDxfId="19" headerRowBorderDxfId="98" tableBorderDxfId="97" totalsRowBorderDxfId="96">
   <autoFilter ref="A1:D18" xr:uid="{64BDA478-CCE0-4BA2-AF09-9B692BD0FE7E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4ADACCF-7388-405F-8F22-E32E2F4EDE03}" name="Product Backlog" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{9D211B38-293D-4F0F-BB09-C75CF29C55E2}" name="Bus Value" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{82E1136D-E1E9-4143-B206-2483E4EF701F}" name="Effort" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{D5CE6A34-9240-46EE-869C-A1F3D5E1E132}" name="ROI" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{F4ADACCF-7388-405F-8F22-E32E2F4EDE03}" name="Product Backlog" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{9D211B38-293D-4F0F-BB09-C75CF29C55E2}" name="Bus Value" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{82E1136D-E1E9-4143-B206-2483E4EF701F}" name="Effort" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D5CE6A34-9240-46EE-869C-A1F3D5E1E132}" name="ROI" dataDxfId="20">
       <calculatedColumnFormula>B2/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40B30D04-3620-404C-AC09-119E9B33376C}" name="Table2" displayName="Table2" ref="A8:B18" totalsRowShown="0" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40B30D04-3620-404C-AC09-119E9B33376C}" name="Table2" displayName="Table2" ref="A8:B18" totalsRowShown="0" headerRowBorderDxfId="95" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <autoFilter ref="A8:B18" xr:uid="{EA799CB5-B2CE-464D-82E0-55B723B56970}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{17A7862D-888A-44F0-8D89-6D81FED46D31}" name="Tasks" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{AD1B5795-23B2-4792-A581-8A3A37BC2DF9}" name="Effort" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{17A7862D-888A-44F0-8D89-6D81FED46D31}" name="Tasks" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{AD1B5795-23B2-4792-A581-8A3A37BC2DF9}" name="Effort" dataDxfId="91"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EFE9E1A8-791E-422D-82FA-CB966858DC32}" name="Table3" displayName="Table3" ref="A22:B34" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EFE9E1A8-791E-422D-82FA-CB966858DC32}" name="Table3" displayName="Table3" ref="A22:B34" totalsRowShown="0" headerRowDxfId="90">
   <autoFilter ref="A22:B34" xr:uid="{2AF30DA4-14ED-463A-BBA6-F78F1C3C21E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{908D09B8-CD19-40F6-8A64-896A7875B9D3}" name="Tasks" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{72050BD8-1058-4C74-A222-CB3527CF199C}" name="Effort" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{908D09B8-CD19-40F6-8A64-896A7875B9D3}" name="Tasks" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{72050BD8-1058-4C74-A222-CB3527CF199C}" name="Effort" dataDxfId="88"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{707D9831-18E3-4E10-99CD-0AFE0F506566}" name="Table4" displayName="Table4" ref="A38:B50" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{707D9831-18E3-4E10-99CD-0AFE0F506566}" name="Table4" displayName="Table4" ref="A38:B50" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A38:B50" xr:uid="{DF17E901-8127-45CB-A34F-FB70D05AAF8B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{61ECFD7E-8E5E-4C1D-B8F3-4A41E694DF85}" name="Tasks" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{111D7593-679F-4761-BA8F-6B8004CAF238}" name="Effort" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{61ECFD7E-8E5E-4C1D-B8F3-4A41E694DF85}" name="Tasks" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{111D7593-679F-4761-BA8F-6B8004CAF238}" name="Effort" dataDxfId="17"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6D97F2FA-FB05-4698-8A9D-4FB9AD4A9380}" name="Table5" displayName="Table5" ref="A54:B69" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6D97F2FA-FB05-4698-8A9D-4FB9AD4A9380}" name="Table5" displayName="Table5" ref="A54:B69" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85" totalsRowBorderDxfId="84">
   <autoFilter ref="A54:B69" xr:uid="{F48DA507-19BE-40AF-A076-4E02D956D958}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8372FC4C-0B08-4A16-B60B-B0FFC24D3F8A}" name="Tasks" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D3C86C9E-CF1F-48A4-8BF8-21A37A9820EC}" name="Effort" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{8372FC4C-0B08-4A16-B60B-B0FFC24D3F8A}" name="Tasks" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{D3C86C9E-CF1F-48A4-8BF8-21A37A9820EC}" name="Effort" dataDxfId="82"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1760,15 +3109,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="96.375" customWidth="1"/>
+    <col min="1" max="1" width="96.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1782,7 +3131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1790,7 +3139,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +3147,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +3155,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1814,7 +3163,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1822,7 +3171,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +3179,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +3187,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +3195,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1866,236 +3215,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="A29:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="86.625" customWidth="1"/>
+    <col min="1" max="1" width="86.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="65" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3">
         <f>SUBTOTAL(109,B12:B20)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B26" s="22"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="65" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3">
         <f>SUBTOTAL(109,B30:B35)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
         <v>97</v>
       </c>
+      <c r="B39" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,280 +3477,280 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="96.125" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="29">
         <v>50</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="29">
         <v>8</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="30">
         <f>B2/C2</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>40</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>13</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D18" si="0">B3/C3</f>
         <v>3.0769230769230771</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="29">
         <v>20</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="29">
         <v>2</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>40</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>8</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>25</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>20</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="29">
         <v>70</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="29">
         <v>10</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>100</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>30</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>13</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="29">
         <v>20</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="29">
         <v>3</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="30">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>60</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>13</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>30</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>8</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>20</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>8</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>100</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>40</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>50</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>13</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>40</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>8</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>35</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>13</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>2.6923076923076925</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>50</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="17">
         <v>20</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="18">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -2403,18 +3768,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="97.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -2424,77 +3789,77 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="29">
         <v>50</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="29">
         <v>8</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="30">
         <f t="shared" ref="D2:D5" si="0">B2/C2</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="29">
         <v>20</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="29">
         <v>2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="29">
         <v>70</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="29">
         <v>10</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="29">
         <v>20</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="29">
         <v>3</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2502,7 +3867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -2510,7 +3875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -2518,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
@@ -2526,7 +3891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
@@ -2534,7 +3899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>98</v>
       </c>
@@ -2542,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
@@ -2550,38 +3915,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <f>SUBTOTAL(109,B9:B14)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="22"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +3954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2597,7 +3962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -2605,7 +3970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -2613,7 +3978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -2621,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -2629,7 +3994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -2637,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -2645,159 +4010,159 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <f>SUBTOTAL(109,B23:B29)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="22"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="68"/>
+      <c r="B47" s="29">
         <f>SUBTOTAL(109,B39:B46)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="26"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -2805,7 +4170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2813,7 +4178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>69</v>
       </c>
@@ -2821,7 +4186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>70</v>
       </c>
@@ -2829,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -2837,7 +4202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>89</v>
       </c>
@@ -2845,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
@@ -2853,7 +4218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
@@ -2861,7 +4226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
@@ -2869,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>72</v>
       </c>
@@ -2877,36 +4242,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="39">
+      <c r="B65" s="34">
         <f>SUBTOTAL(109,B55:B64)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2922,85 +4287,919 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2AF214-A2C9-46FB-8AC4-9F94CDD43556}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="99.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>3.0769230769230771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45</v>
+      </c>
+      <c r="C3" s="32">
+        <v>8</v>
+      </c>
+      <c r="D3" s="33">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>100</v>
+      </c>
+      <c r="C5" s="10">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="10">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="10">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10">
+        <v>50</v>
+      </c>
+      <c r="C11" s="10">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="10">
+        <v>35</v>
+      </c>
+      <c r="C13" s="10">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>2.6923076923076925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="17">
+        <v>50</v>
+      </c>
+      <c r="C14" s="17">
+        <v>20</v>
+      </c>
+      <c r="D14" s="18">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="45">
+        <v>25</v>
+      </c>
+      <c r="C15" s="45">
+        <v>4</v>
+      </c>
+      <c r="D15" s="46">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="45">
+        <v>80</v>
+      </c>
+      <c r="C16" s="45">
+        <v>5</v>
+      </c>
+      <c r="D16" s="46">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="45">
+        <v>30</v>
+      </c>
+      <c r="C17" s="45">
+        <v>5</v>
+      </c>
+      <c r="D17" s="46">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="17">
+        <v>20</v>
+      </c>
+      <c r="C18" s="17">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="17">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="17">
+        <v>40</v>
+      </c>
+      <c r="C20" s="17">
+        <v>20</v>
+      </c>
+      <c r="D20" s="18">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="10">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10">
+        <v>6</v>
+      </c>
+      <c r="D21" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="10">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDF4A1E-0436-4ED3-842B-F37EC65198D9}">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="90.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="47">
+        <v>45</v>
+      </c>
+      <c r="C2" s="47">
+        <v>8</v>
+      </c>
+      <c r="D2" s="48">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>3.0769230769230771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="47">
+        <v>25</v>
+      </c>
+      <c r="C3" s="47">
+        <v>4</v>
+      </c>
+      <c r="D3" s="48">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="47">
+        <v>80</v>
+      </c>
+      <c r="C4" s="47">
+        <v>5</v>
+      </c>
+      <c r="D4" s="48">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="49">
+        <v>30</v>
+      </c>
+      <c r="C5" s="49">
+        <v>5</v>
+      </c>
+      <c r="D5" s="50">
+        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="58"/>
+      <c r="B19" s="57">
+        <f>SUBTOTAL(109,B12:B18)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="56"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="56"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="56"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="56"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="41"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="68"/>
+      <c r="B34" s="29">
+        <f>SUBTOTAL(109,B28:B33)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="68"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="38"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="34">
+        <f>SUBTOTAL(109,B43:B46)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="40"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="34">
+        <f>SUM(B55:B59)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="74" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project1/Product Backlog(Final-Revision).xlsx
+++ b/Project1/Product Backlog(Final-Revision).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MadeleineLeong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53C776A-1D06-46F7-9B91-901A44ADFFE5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FDB0425-E29C-7F4E-A19D-1F430C3B38AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog - Meeting 1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,12 @@
     <sheet name="Sprint Backlog 2" sheetId="4" r:id="rId4"/>
     <sheet name="Product Backlog - Meeting 3" sheetId="8" r:id="rId5"/>
     <sheet name="Sprint Backlog 3" sheetId="9" r:id="rId6"/>
-    <sheet name="Team Members" sheetId="7" r:id="rId7"/>
+    <sheet name="Product Backlog - Meeting 4" sheetId="11" r:id="rId7"/>
+    <sheet name="Sprint Backlog 4" sheetId="12" r:id="rId8"/>
+    <sheet name="Retrospective" sheetId="13" r:id="rId9"/>
+    <sheet name="Team Members" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="185">
   <si>
     <t>As a hotel owner I want a payment details portal so that I can assist my customers</t>
   </si>
@@ -132,12 +135,6 @@
     <t>Sucessful payment</t>
   </si>
   <si>
-    <t>field vaidations</t>
-  </si>
-  <si>
-    <t>insufficient funds</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validation prior to sumbission </t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t xml:space="preserve">Successful login </t>
   </si>
   <si>
-    <t xml:space="preserve">Successful pulling of user information </t>
-  </si>
-  <si>
     <t>Successful editing of booking</t>
   </si>
   <si>
@@ -319,12 +313,6 @@
   </si>
   <si>
     <t>Test and log the payment environment</t>
-  </si>
-  <si>
-    <t>check payment in different platforms and web navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check payment in different WIFI signal strength </t>
   </si>
   <si>
     <t xml:space="preserve">Open different online banking accounts for the prupose of testing </t>
@@ -393,9 +381,6 @@
     <t xml:space="preserve">Accurate report </t>
   </si>
   <si>
-    <t>Build a form to collect customer login information</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate that login details exists in the database </t>
   </si>
   <si>
@@ -457,13 +442,178 @@
   </si>
   <si>
     <t>Build API to export data to reporting engine and sort according to different criteria</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want a search option based on dates so that customer can see room availibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a hotel owner I want a to provide the customer with a flexible refund process so that they can get instant refund in terms of points  </t>
+  </si>
+  <si>
+    <t>As a hotel owner I want my website to have B2B so that I connect to travel agents to offer them discouted rates</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want to provide a complementary option for the first 5% of customers(per day) so that I can attract more customers</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want  a user portal so that customers can book activities that hotels offer at the spa</t>
+  </si>
+  <si>
+    <t>As a customer I want to be able to login using social media so that they have easy access</t>
+  </si>
+  <si>
+    <t>As a customer I want events tab on the website so that I can get information on ongoing and scheduled events</t>
+  </si>
+  <si>
+    <t>Add a (Cancel) button to the user account (View Reservations) page</t>
+  </si>
+  <si>
+    <t>Add a section to notify user that the booking has been cancelled and provide information on refund process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform manual testing </t>
+  </si>
+  <si>
+    <t>Successful cancellation of booking</t>
+  </si>
+  <si>
+    <t>Define a refund work process flow</t>
+  </si>
+  <si>
+    <t>Define and build a function to implement the workflow</t>
+  </si>
+  <si>
+    <t>Integrate the functions and workflow with the existing interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully updation of the staff of on cancellation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and build a database schema for events </t>
+  </si>
+  <si>
+    <t>Build a function to select the upcoming events from the database and post on the events webpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquire information on all upcoming events </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build a form to accept customer feedback </t>
+  </si>
+  <si>
+    <t>Upload all feedback to a database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and build a table for the existing database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and build a reports view for the owner </t>
+  </si>
+  <si>
+    <t>Manual testing of all features</t>
+  </si>
+  <si>
+    <t>Integrate with existing services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful testing </t>
+  </si>
+  <si>
+    <t>What worked within the project</t>
+  </si>
+  <si>
+    <t>What did not work within the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add all the spa services and prices for each service </t>
+  </si>
+  <si>
+    <t>Implement Process Payment API built in sprint 1</t>
+  </si>
+  <si>
+    <t>Section for successful payment and booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and build an employee facing user interface for displaying new bookings </t>
+  </si>
+  <si>
+    <t>Design and build a table in the existing database for spa bookings</t>
+  </si>
+  <si>
+    <t>Successful integration</t>
+  </si>
+  <si>
+    <t>Integrate with existing service</t>
+  </si>
+  <si>
+    <t>Build and implement a method to display all new bookings on the employee facing UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check webpage on different platforms </t>
+  </si>
+  <si>
+    <t>Insufficient Funds</t>
+  </si>
+  <si>
+    <t>Check payment in different platforms and web navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check payment in different WIFI signal strength </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful projection of user information </t>
+  </si>
+  <si>
+    <t>Build a form to accept customer login information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User testing </t>
+  </si>
+  <si>
+    <t>Made the plan quickly and efficiently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and build a customer-facing webpage UI for the spa activities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful display on different platforms </t>
+  </si>
+  <si>
+    <t>Successful testing</t>
+  </si>
+  <si>
+    <t>Meetings sometimes frustrate team members</t>
+  </si>
+  <si>
+    <t>The chances of project failure are high if team members aren’t very committed or cooperative</t>
+  </si>
+  <si>
+    <t>Sprint meetings kept getting faster, shorter and more productive the more times we had them</t>
+  </si>
+  <si>
+    <t>Large tasks were divided into easily manageable sprints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear comprehension of SCRUM methodology </t>
+  </si>
+  <si>
+    <t>The team got clear visibility of the project tasks through scrum meetings</t>
+  </si>
+  <si>
+    <t>Estimating the efforts were a little difficult as we did not fully understand the technical requirements of the task</t>
+  </si>
+  <si>
+    <t>Some of the tasks were not clearly defined and we had difficulty understanding them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some tasks with the highest BV were left out as the efforts involved were high as well which made the ROI too low to be considered </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,8 +657,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +702,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -725,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -769,15 +940,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -825,43 +987,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
+  <dxfs count="138">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -872,16 +1093,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -891,6 +1108,38 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -945,52 +1194,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1021,6 +1224,136 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1038,33 +1371,23 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1079,23 +1402,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1202,19 +1564,80 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1223,25 +1646,70 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1263,12 +1731,14 @@
       </font>
       <fill>
         <patternFill patternType="none">
-          <fgColor theme="4" tint="0.59999389629810485"/>
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1278,7 +1748,31 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1293,103 +1787,156 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1404,12 +1951,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1424,30 +1967,19 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1463,241 +1995,11 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1717,11 +2019,21 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1811,6 +2123,184 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1850,24 +2340,24 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1877,37 +2367,60 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1920,18 +2433,17 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1949,57 +2461,28 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2007,45 +2490,26 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -2437,6 +2901,85 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2559,6 +3102,91 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2580,6 +3208,14 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2620,6 +3256,316 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -2649,13 +3595,13 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2605D949-0F02-4EB3-B072-EA7F18FBDB71}" name="Table8" displayName="Table8" ref="A1:D5" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2605D949-0F02-4EB3-B072-EA7F18FBDB71}" name="Table8" displayName="Table8" ref="A1:D5" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="A1:D5" xr:uid="{D640FEED-ADC7-4A3C-B4A2-11B216CB9671}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B6ABDECB-8723-4A4D-A519-4753DC546751}" name="Product Backlog" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{2A999E80-31ED-41BB-9D65-6AA2A1FAB463}" name="Avg Bus V" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{773CD4CB-8BFA-4044-97E9-AABBEF11858C}" name="Avg Effort" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{EB6BA28E-2CD8-44F5-996A-9C5DD9E8BBD8}" name="ROI" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{B6ABDECB-8723-4A4D-A519-4753DC546751}" name="Product Backlog" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{2A999E80-31ED-41BB-9D65-6AA2A1FAB463}" name="Avg Bus V" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{773CD4CB-8BFA-4044-97E9-AABBEF11858C}" name="Avg Effort" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{EB6BA28E-2CD8-44F5-996A-9C5DD9E8BBD8}" name="ROI" dataDxfId="83">
       <calculatedColumnFormula>B2/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2664,13 +3610,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4615C903-3369-4B9A-8A6C-51AAB471E7C9}" name="Table713" displayName="Table713" ref="A1:D22" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4615C903-3369-4B9A-8A6C-51AAB471E7C9}" name="Table713" displayName="Table713" ref="A1:D22" totalsRowShown="0" headerRowDxfId="82" headerRowBorderDxfId="81" tableBorderDxfId="80" totalsRowBorderDxfId="79">
   <autoFilter ref="A1:D22" xr:uid="{64BDA478-CCE0-4BA2-AF09-9B692BD0FE7E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B52CB37-E945-454D-B973-EA022C949E65}" name="Product Backlog" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{3FE2C99A-AD1A-4257-B86A-42EEDF19573C}" name="Bus Value" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{D0A7685C-1340-45B4-B5F9-BF12A505802B}" name="Effort" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{1CB7B1A7-4A62-46BD-9325-BAB42A224436}" name="ROI" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{1B52CB37-E945-454D-B973-EA022C949E65}" name="Product Backlog" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{3FE2C99A-AD1A-4257-B86A-42EEDF19573C}" name="Bus Value" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{D0A7685C-1340-45B4-B5F9-BF12A505802B}" name="Effort" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{1CB7B1A7-4A62-46BD-9325-BAB42A224436}" name="ROI" dataDxfId="75">
       <calculatedColumnFormula>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2679,36 +3625,36 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D8CC0A1A-CAA1-4748-A7F9-7151E8369CCB}" name="Table18" displayName="Table18" ref="A27:B38" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D8CC0A1A-CAA1-4748-A7F9-7151E8369CCB}" name="Table18" displayName="Table18" ref="A27:B38" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
   <autoFilter ref="A27:B38" xr:uid="{16B6BBB2-DD42-4F4B-863C-5EC3BD610DF9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8911936A-4795-4575-B3F9-D51F19CC5AEC}" name="Tasks" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4B9F1ECA-1DA1-412C-B689-93B3C0C3B23F}" name="Effort" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{8911936A-4795-4575-B3F9-D51F19CC5AEC}" name="Tasks" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{4B9F1ECA-1DA1-412C-B689-93B3C0C3B23F}" name="Effort" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{703B988F-8A15-41D7-AAFF-BF9299E42A1C}" name="Table19" displayName="Table19" ref="A42:B50" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{703B988F-8A15-41D7-AAFF-BF9299E42A1C}" name="Table19" displayName="Table19" ref="A42:B50" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="A42:B50" xr:uid="{138CDBB9-DAAD-4444-BF77-27C15A15F2D1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{167500EF-A4F0-4F7F-BBA1-92FA7ADB94ED}" name="Tasks" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{D57AA5BD-EBDB-47FB-B1C1-6411DE08CAE3}" name="Effort" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{167500EF-A4F0-4F7F-BBA1-92FA7ADB94ED}" name="Tasks" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{D57AA5BD-EBDB-47FB-B1C1-6411DE08CAE3}" name="Effort" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DAAC4AF8-F47C-42A7-B40C-2E0FFED17374}" name="Table13" displayName="Table13" ref="A1:D5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DAAC4AF8-F47C-42A7-B40C-2E0FFED17374}" name="Table13" displayName="Table13" ref="A1:D5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:D5" xr:uid="{9FFAEB3A-9628-4CEF-A1F7-11FD9D4C481B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{53D2F6F9-BF54-4A6D-8489-4692CC981169}" name="Product Backlog" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6D5C4AEF-BBDD-4E92-903E-DB30BC4F5A19}" name="Bus Value" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{30914107-59DA-4D50-83C0-313615FD4C5E}" name="Effort" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{85F63D77-0B65-4351-9108-0132E235EF3B}" name="ROI" dataDxfId="11">
-      <calculatedColumnFormula>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{53D2F6F9-BF54-4A6D-8489-4692CC981169}" name="Product Backlog" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{6D5C4AEF-BBDD-4E92-903E-DB30BC4F5A19}" name="Bus Value" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{30914107-59DA-4D50-83C0-313615FD4C5E}" name="Effort" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{85F63D77-0B65-4351-9108-0132E235EF3B}" name="ROI" dataDxfId="0">
+      <calculatedColumnFormula>Table13[[#This Row],[Bus Value]]/Table13[[#This Row],[Effort]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2716,82 +3662,156 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F055E82E-9C0D-4BD1-9502-17458C75C5B3}" name="Table14" displayName="Table14" ref="A11:B23" totalsRowShown="0" headerRowDxfId="46" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F055E82E-9C0D-4BD1-9502-17458C75C5B3}" name="Table14" displayName="Table14" ref="A11:B23" totalsRowShown="0" headerRowDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A11:B23" xr:uid="{18436C04-E0B5-4322-8990-B72039FEAA35}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8735EA2C-CEE0-40C0-9E82-79A8BBBB2A0A}" name="Tasks" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{58C91BB1-37F4-4036-AD79-96617CA66459}" name="Effort" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{8735EA2C-CEE0-40C0-9E82-79A8BBBB2A0A}" name="Tasks" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{58C91BB1-37F4-4036-AD79-96617CA66459}" name="Effort" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{131028CA-45F1-4DCC-9D4F-8F7E688148E8}" name="Table15" displayName="Table15" ref="A54:B64" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{131028CA-45F1-4DCC-9D4F-8F7E688148E8}" name="Table15" displayName="Table15" ref="A54:B64" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <autoFilter ref="A54:B64" xr:uid="{4EE30F3D-A62A-4EC5-BC30-1D502B7CF619}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{07736874-D209-434D-9593-DD24B89E34BC}" name="Tasks" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{55F7558F-AB57-4927-8B97-50FAACC605B5}" name="Effort" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{07736874-D209-434D-9593-DD24B89E34BC}" name="Tasks" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{55F7558F-AB57-4927-8B97-50FAACC605B5}" name="Effort" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{69543670-C5BB-49CF-B567-C8FC13E8CCFB}" name="Table10" displayName="Table10" ref="A1:C6" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3BBAA9BA-10E3-4689-AC1E-41EBDB96BDAD}" name="Table71317" displayName="Table71317" ref="A1:D25" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="A1:D25" xr:uid="{64BDA478-CCE0-4BA2-AF09-9B692BD0FE7E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A126A331-247D-44DD-AB90-FF8B1E819632}" name="Product Backlog" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{90CFDDAF-B778-42A1-A05A-DA429074E0E7}" name="Bus Value" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{365823FD-DA74-47C1-96C0-DE3EC5799391}" name="Effort" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{6410A582-A936-4D37-9642-630FFE29CD53}" name="ROI" dataDxfId="38">
+      <calculatedColumnFormula>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{A03A7745-30D6-49E4-A317-CDDB1DF2DF1C}" name="Table1818" displayName="Table1818" ref="A26:B38" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A26:B38" xr:uid="{16B6BBB2-DD42-4F4B-863C-5EC3BD610DF9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F5D1BFF8-AB63-4FD0-A4D0-8DFBAC051B6F}" name="Tasks" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{52C6518F-E325-4D18-BBDF-61835F5A8A2A}" name="Effort" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E546FFDB-FC03-489F-B0AD-51FFA4B3E8F1}" name="Table1921" displayName="Table1921" ref="A42:B54" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A42:B54" xr:uid="{138CDBB9-DAAD-4444-BF77-27C15A15F2D1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3AC07F17-3846-4433-8658-D3A0B0441ECD}" name="Tasks" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{4EEA1B96-FAD8-4A0B-808F-0B1EF5F203E0}" name="Effort" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:B24" totalsRowShown="0" headerRowDxfId="137" headerRowBorderDxfId="136" tableBorderDxfId="135" totalsRowBorderDxfId="134">
+  <autoFilter ref="A9:B24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tasks" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Effort" dataDxfId="132"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{6A5258DD-8889-4733-A1A4-25588C486497}" name="Table1322" displayName="Table1322" ref="A1:D5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:D5" xr:uid="{9FFAEB3A-9628-4CEF-A1F7-11FD9D4C481B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{658AC938-525D-46EF-A22B-4B3AEC9D9700}" name="Product Backlog" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B8D319B0-6CB5-4EB6-AC37-31CBFCA77B51}" name="Bus Value" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{E2706700-85FC-4C95-AC4F-D219AA2DF3AA}" name="Effort" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{C7272F98-4B21-432A-A542-D99793EE39F5}" name="ROI" dataDxfId="1">
+      <calculatedColumnFormula>Table1322[[#This Row],[Bus Value]]/Table1322[[#This Row],[Effort]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{4186C149-284C-4109-B3C9-A774496DD617}" name="Table1423" displayName="Table1423" ref="A10:B22" totalsRowShown="0" headerRowDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A10:B22" xr:uid="{18436C04-E0B5-4322-8990-B72039FEAA35}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A085AAE2-217F-4E5E-A9CC-5EA117269DDF}" name="Tasks" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{08787D3B-2B5E-48BA-AB93-A55C2FD3D603}" name="Effort" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{1AAC279E-BBFB-42D3-ABCD-F82C1C9C9892}" name="Table1524" displayName="Table1524" ref="A58:B72" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A58:B72" xr:uid="{4EE30F3D-A62A-4EC5-BC30-1D502B7CF619}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D006FA0D-F5FA-4874-A42E-F4CD38A11534}" name="Tasks" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{41910899-BE38-4633-B134-03D4D8790A38}" name="Effort" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{69543670-C5BB-49CF-B567-C8FC13E8CCFB}" name="Table10" displayName="Table10" ref="A1:C6" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:C6" xr:uid="{ED60B849-980A-4330-A1BA-88AFAF734F06}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0F4034D6-6D14-45A1-BD91-2FB28ED29698}" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F27630-BB0A-4A69-94FB-60281BC3CD1F}" name="A#" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{4C1A9A26-EA4F-4795-B85A-237B0C97ED63}" name="Role" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0F4034D6-6D14-45A1-BD91-2FB28ED29698}" name="Name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D7F27630-BB0A-4A69-94FB-60281BC3CD1F}" name="A#" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{4C1A9A26-EA4F-4795-B85A-237B0C97ED63}" name="Role" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A11:B26" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
-  <autoFilter ref="A11:B26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2ADBD426-156B-433E-9FFF-C433DFC962D3}" name="Table9" displayName="Table9" ref="A27:B37" totalsRowShown="0" headerRowDxfId="131" headerRowBorderDxfId="130" tableBorderDxfId="129" totalsRowBorderDxfId="128">
+  <autoFilter ref="A27:B37" xr:uid="{CAF3D162-4F4F-456E-B957-6D155D682EAB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tasks" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Effort" dataDxfId="39"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2ADBD426-156B-433E-9FFF-C433DFC962D3}" name="Table9" displayName="Table9" ref="A29:B39" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
-  <autoFilter ref="A29:B39" xr:uid="{CAF3D162-4F4F-456E-B957-6D155D682EAB}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{171E5274-4074-4DC9-A409-3E7858B25E12}" name="Tasks" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{86579749-C904-4F07-992C-F9E7F5429678}" name="Effort" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{171E5274-4074-4DC9-A409-3E7858B25E12}" name="Tasks" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{86579749-C904-4F07-992C-F9E7F5429678}" name="Effort" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4923F359-9D21-476D-844A-6D5FC98560E7}" name="Table11" displayName="Table11" ref="A1:D3" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4923F359-9D21-476D-844A-6D5FC98560E7}" name="Table11" displayName="Table11" ref="A1:D3" totalsRowShown="0" headerRowDxfId="125" headerRowBorderDxfId="124" tableBorderDxfId="123" totalsRowBorderDxfId="122">
   <autoFilter ref="A1:D3" xr:uid="{8829136D-C44B-4C5C-9215-773409D1E8C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{64879C13-769B-41BC-B9A9-576A59AA2883}" name="Product Backlog" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{A82D07D4-81F8-4281-88AD-73FDEA58BC05}" name="Avg Bus V" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{E52E422B-5885-4EAE-AFEE-8831AA72155C}" name="Avg Effort" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{A44159B0-014B-499F-A53A-89A10AFA1B75}" name="ROI" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{64879C13-769B-41BC-B9A9-576A59AA2883}" name="Product Backlog" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{A82D07D4-81F8-4281-88AD-73FDEA58BC05}" name="Avg Bus V" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{E52E422B-5885-4EAE-AFEE-8831AA72155C}" name="Avg Effort" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{A44159B0-014B-499F-A53A-89A10AFA1B75}" name="ROI" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{037B6215-936A-44E1-B3B0-3E72A9945368}" name="Table7" displayName="Table7" ref="A1:D18" totalsRowShown="0" headerRowDxfId="99" dataDxfId="19" headerRowBorderDxfId="98" tableBorderDxfId="97" totalsRowBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{037B6215-936A-44E1-B3B0-3E72A9945368}" name="Table7" displayName="Table7" ref="A1:D18" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114" totalsRowBorderDxfId="113">
   <autoFilter ref="A1:D18" xr:uid="{64BDA478-CCE0-4BA2-AF09-9B692BD0FE7E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4ADACCF-7388-405F-8F22-E32E2F4EDE03}" name="Product Backlog" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{9D211B38-293D-4F0F-BB09-C75CF29C55E2}" name="Bus Value" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{82E1136D-E1E9-4143-B206-2483E4EF701F}" name="Effort" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{D5CE6A34-9240-46EE-869C-A1F3D5E1E132}" name="ROI" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{F4ADACCF-7388-405F-8F22-E32E2F4EDE03}" name="Product Backlog" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{9D211B38-293D-4F0F-BB09-C75CF29C55E2}" name="Bus Value" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{82E1136D-E1E9-4143-B206-2483E4EF701F}" name="Effort" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{D5CE6A34-9240-46EE-869C-A1F3D5E1E132}" name="ROI" dataDxfId="109">
       <calculatedColumnFormula>B2/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2800,44 +3820,44 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40B30D04-3620-404C-AC09-119E9B33376C}" name="Table2" displayName="Table2" ref="A8:B18" totalsRowShown="0" headerRowBorderDxfId="95" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40B30D04-3620-404C-AC09-119E9B33376C}" name="Table2" displayName="Table2" ref="A8:B18" totalsRowShown="0" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <autoFilter ref="A8:B18" xr:uid="{EA799CB5-B2CE-464D-82E0-55B723B56970}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{17A7862D-888A-44F0-8D89-6D81FED46D31}" name="Tasks" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{AD1B5795-23B2-4792-A581-8A3A37BC2DF9}" name="Effort" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{17A7862D-888A-44F0-8D89-6D81FED46D31}" name="Tasks" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{AD1B5795-23B2-4792-A581-8A3A37BC2DF9}" name="Effort" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EFE9E1A8-791E-422D-82FA-CB966858DC32}" name="Table3" displayName="Table3" ref="A22:B34" totalsRowShown="0" headerRowDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EFE9E1A8-791E-422D-82FA-CB966858DC32}" name="Table3" displayName="Table3" ref="A22:B34" totalsRowShown="0" headerRowDxfId="103">
   <autoFilter ref="A22:B34" xr:uid="{2AF30DA4-14ED-463A-BBA6-F78F1C3C21E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{908D09B8-CD19-40F6-8A64-896A7875B9D3}" name="Tasks" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{72050BD8-1058-4C74-A222-CB3527CF199C}" name="Effort" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{908D09B8-CD19-40F6-8A64-896A7875B9D3}" name="Tasks" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{72050BD8-1058-4C74-A222-CB3527CF199C}" name="Effort" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{707D9831-18E3-4E10-99CD-0AFE0F506566}" name="Table4" displayName="Table4" ref="A38:B50" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{707D9831-18E3-4E10-99CD-0AFE0F506566}" name="Table4" displayName="Table4" ref="A38:B50" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="A38:B50" xr:uid="{DF17E901-8127-45CB-A34F-FB70D05AAF8B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{61ECFD7E-8E5E-4C1D-B8F3-4A41E694DF85}" name="Tasks" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{111D7593-679F-4761-BA8F-6B8004CAF238}" name="Effort" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{61ECFD7E-8E5E-4C1D-B8F3-4A41E694DF85}" name="Tasks" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{111D7593-679F-4761-BA8F-6B8004CAF238}" name="Effort" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6D97F2FA-FB05-4698-8A9D-4FB9AD4A9380}" name="Table5" displayName="Table5" ref="A54:B69" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6D97F2FA-FB05-4698-8A9D-4FB9AD4A9380}" name="Table5" displayName="Table5" ref="A54:B69" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <autoFilter ref="A54:B69" xr:uid="{F48DA507-19BE-40AF-A076-4E02D956D958}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8372FC4C-0B08-4A16-B60B-B0FFC24D3F8A}" name="Tasks" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{D3C86C9E-CF1F-48A4-8BF8-21A37A9820EC}" name="Effort" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{8372FC4C-0B08-4A16-B60B-B0FFC24D3F8A}" name="Tasks" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{D3C86C9E-CF1F-48A4-8BF8-21A37A9820EC}" name="Effort" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3109,15 +4129,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="96.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3131,7 +4151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3139,7 +4159,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3147,7 +4167,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3155,7 +4175,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3163,7 +4183,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3171,7 +4191,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3179,7 +4199,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +4207,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3195,13 +4215,105 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="D10">
         <v>1.8</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,18 +4325,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="A29:B39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="86.58203125" customWidth="1"/>
+    <col min="1" max="1" width="86.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -3238,229 +4350,233 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>34</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63">
+        <v>29</v>
+      </c>
       <c r="D3" s="22"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B9" s="62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="34">
+        <f>SUBTOTAL(109,B10:B18)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="22"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <f>SUBTOTAL(109,B12:B20)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="22"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="34">
+        <f>SUBTOTAL(109,B28:B33)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3">
-        <f>SUBTOTAL(109,B30:B35)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="22"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3480,13 +4596,13 @@
       <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="96.08203125" customWidth="1"/>
+    <col min="1" max="1" width="96" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -3500,8 +4616,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="29">
@@ -3515,7 +4631,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -3530,8 +4646,8 @@
         <v>3.0769230769230771</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="29">
@@ -3545,7 +4661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -3560,7 +4676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3575,8 +4691,8 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="29">
@@ -3590,7 +4706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +4721,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
@@ -3620,8 +4736,8 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="29">
@@ -3635,9 +4751,9 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="10">
         <v>60</v>
@@ -3650,9 +4766,9 @@
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="10">
         <v>30</v>
@@ -3665,9 +4781,9 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="10">
         <v>20</v>
@@ -3680,9 +4796,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="10">
         <v>100</v>
@@ -3695,9 +4811,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="10">
         <v>50</v>
@@ -3710,9 +4826,9 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="10">
         <v>40</v>
@@ -3725,9 +4841,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="10">
         <v>35</v>
@@ -3740,9 +4856,9 @@
         <v>2.6923076923076925</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="17">
         <v>50</v>
@@ -3768,18 +4884,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A25:A26"/>
+    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="97.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -3793,22 +4909,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="29">
         <v>50</v>
       </c>
       <c r="C2" s="29">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30">
         <f t="shared" ref="D2:D5" si="0">B2/C2</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
@@ -3816,14 +4932,14 @@
         <v>20</v>
       </c>
       <c r="C3" s="29">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D3" s="30">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.64516129032258063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -3831,14 +4947,14 @@
         <v>70</v>
       </c>
       <c r="C4" s="29">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D4" s="30">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.1212121212121211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="28" t="s">
         <v>13</v>
       </c>
@@ -3846,20 +4962,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="29">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D5" s="30">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3867,86 +4983,86 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="7">
         <f>SUBTOTAL(109,B9:B14)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -3954,207 +5070,207 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f>SUBTOTAL(109,B23:B29)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="19"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="64" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="68" t="s">
-        <v>64</v>
+    <row r="41" spans="1:2">
+      <c r="A41" s="65" t="s">
+        <v>62</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="68" t="s">
-        <v>61</v>
+    <row r="42" spans="1:2">
+      <c r="A42" s="65" t="s">
+        <v>59</v>
       </c>
       <c r="B42" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="68" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="65" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="68" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="65" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="68" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="65" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="68" t="s">
-        <v>36</v>
+    <row r="46" spans="1:2">
+      <c r="A46" s="65" t="s">
+        <v>34</v>
       </c>
       <c r="B46" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="68"/>
+    <row r="47" spans="1:2">
+      <c r="A47" s="65"/>
       <c r="B47" s="29">
         <f>SUBTOTAL(109,B39:B46)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="68" t="s">
-        <v>62</v>
+    <row r="49" spans="1:2">
+      <c r="A49" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B50" s="10"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="21"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
         <v>17</v>
       </c>
@@ -4162,114 +5278,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B60" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B61" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B64" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" s="2"/>
       <c r="B65" s="34">
         <f>SUBTOTAL(109,B55:B64)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B69" s="22"/>
     </row>
@@ -4290,17 +5406,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2AF214-A2C9-46FB-8AC4-9F94CDD43556}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="99.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -4314,7 +5430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -4329,7 +5445,7 @@
         <v>3.0769230769230771</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="9" customFormat="1">
       <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
@@ -4344,7 +5460,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -4359,7 +5475,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -4374,7 +5490,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -4389,9 +5505,9 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10">
         <v>60</v>
@@ -4404,9 +5520,9 @@
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="10">
         <v>30</v>
@@ -4419,9 +5535,9 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="10">
         <v>20</v>
@@ -4434,9 +5550,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="10">
         <v>100</v>
@@ -4449,9 +5565,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="10">
         <v>50</v>
@@ -4464,9 +5580,9 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="10">
         <v>40</v>
@@ -4479,9 +5595,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="10">
         <v>35</v>
@@ -4494,9 +5610,9 @@
         <v>2.6923076923076925</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="17">
         <v>50</v>
@@ -4509,54 +5625,54 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="45">
+    <row r="15" spans="1:4" s="9" customFormat="1">
+      <c r="A15" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="42">
         <v>25</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="42">
         <v>4</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="43">
         <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="45">
+    <row r="16" spans="1:4" s="9" customFormat="1">
+      <c r="A16" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="42">
         <v>80</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="42">
         <v>5</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="43">
         <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="45">
+    <row r="17" spans="1:4" s="9" customFormat="1">
+      <c r="A17" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="42">
         <v>30</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="42">
         <v>5</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="43">
         <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B18" s="17">
         <v>20</v>
@@ -4569,9 +5685,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19" s="17">
         <v>30</v>
@@ -4584,9 +5700,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20" s="17">
         <v>40</v>
@@ -4599,9 +5715,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B21" s="10">
         <v>8</v>
@@ -4614,9 +5730,9 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B22" s="10">
         <v>8</v>
@@ -4642,308 +5758,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDF4A1E-0436-4ED3-842B-F37EC65198D9}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="90.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="90.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1">
+      <c r="A1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7" s="9" customFormat="1">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="44">
         <v>45</v>
       </c>
-      <c r="C2" s="47">
-        <v>8</v>
-      </c>
-      <c r="D2" s="48">
-        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
-        <v>3.0769230769230771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="47">
+      <c r="C2" s="44">
         <v>25</v>
       </c>
-      <c r="C3" s="47">
-        <v>4</v>
-      </c>
-      <c r="D3" s="48">
-        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
-        <v>5.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="47">
+      <c r="D2" s="45">
+        <f>Table13[[#This Row],[Bus Value]]/Table13[[#This Row],[Effort]]</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1">
+      <c r="A3" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="44">
+        <v>25</v>
+      </c>
+      <c r="C3" s="44">
+        <v>14</v>
+      </c>
+      <c r="D3" s="45">
+        <f>Table13[[#This Row],[Bus Value]]/Table13[[#This Row],[Effort]]</f>
+        <v>1.7857142857142858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1">
+      <c r="A4" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="44">
         <v>80</v>
       </c>
-      <c r="C4" s="47">
-        <v>5</v>
-      </c>
-      <c r="D4" s="48">
-        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="49">
+      <c r="C4" s="44">
+        <v>13</v>
+      </c>
+      <c r="D4" s="45">
+        <f>Table13[[#This Row],[Bus Value]]/Table13[[#This Row],[Effort]]</f>
+        <v>6.1538461538461542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1">
+      <c r="A5" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="46">
         <v>30</v>
       </c>
-      <c r="C5" s="49">
-        <v>5</v>
-      </c>
-      <c r="D5" s="50">
-        <f>Table713[[#This Row],[Bus Value]]/Table713[[#This Row],[Effort]]</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
+      <c r="C5" s="46">
+        <v>15</v>
+      </c>
+      <c r="D5" s="47">
+        <f>Table13[[#This Row],[Bus Value]]/Table13[[#This Row],[Effort]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="35" customFormat="1"/>
+    <row r="7" spans="1:7" s="35" customFormat="1"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="60" t="s">
+    <row r="11" spans="1:7" s="35" customFormat="1">
+      <c r="A11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="56">
+    <row r="12" spans="1:7">
+      <c r="A12" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="56">
+    <row r="13" spans="1:7">
+      <c r="A13" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="56">
+    <row r="14" spans="1:7">
+      <c r="A14" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="56">
+    <row r="15" spans="1:7">
+      <c r="A15" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="56">
+    <row r="16" spans="1:7">
+      <c r="A16" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="56">
+    <row r="17" spans="1:2">
+      <c r="A17" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="56">
+    <row r="18" spans="1:2">
+      <c r="A18" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="53">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
-      <c r="B19" s="57">
+    <row r="19" spans="1:2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="54">
         <f>SUBTOTAL(109,B12:B18)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="56"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="56"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="56"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="56"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="53"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="53"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="53"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="53"/>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="41"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="69" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="81"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="68" t="s">
-        <v>59</v>
+    <row r="28" spans="1:2">
+      <c r="A28" s="65" t="s">
+        <v>57</v>
       </c>
       <c r="B28" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="68" t="s">
-        <v>114</v>
+    <row r="29" spans="1:2">
+      <c r="A29" s="65" t="s">
+        <v>170</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="68" t="s">
-        <v>115</v>
+    <row r="30" spans="1:2">
+      <c r="A30" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="B30" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="68" t="s">
-        <v>116</v>
+    <row r="31" spans="1:2">
+      <c r="A31" s="65" t="s">
+        <v>110</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="68" t="s">
-        <v>117</v>
+    <row r="32" spans="1:2">
+      <c r="A32" s="65" t="s">
+        <v>111</v>
       </c>
       <c r="B32" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="68" t="s">
-        <v>119</v>
+    <row r="33" spans="1:2">
+      <c r="A33" s="65" t="s">
+        <v>113</v>
       </c>
       <c r="B33" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="68"/>
+    <row r="34" spans="1:2">
+      <c r="A34" s="65"/>
       <c r="B34" s="29">
         <f>SUBTOTAL(109,B28:B33)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="68"/>
+    <row r="35" spans="1:2">
+      <c r="A35" s="65"/>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="68" t="s">
-        <v>62</v>
+    <row r="37" spans="1:2">
+      <c r="A37" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="68" t="s">
-        <v>118</v>
+    <row r="38" spans="1:2">
+      <c r="A38" s="65" t="s">
+        <v>112</v>
       </c>
       <c r="B38" s="10"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="37" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B41" s="38"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
@@ -4951,151 +6067,151 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B43" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="2"/>
       <c r="B47" s="34">
         <f>SUBTOTAL(109,B43:B46)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="23" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="40"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="42" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="80"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B56" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="2"/>
       <c r="B60" s="34">
         <f>SUM(B55:B59)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B64" s="22"/>
     </row>
@@ -5118,93 +6234,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C1DC59-B4FD-4AF2-8356-23DB50E69618}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="112.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" style="35"/>
+    <col min="4" max="4" width="12.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>3.0769230769230771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10">
         <v>20</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="71" t="s">
+      <c r="D3" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
+      <c r="A5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="32">
+        <v>13</v>
+      </c>
+      <c r="C5" s="32">
+        <v>3</v>
+      </c>
+      <c r="D5" s="33">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="77">
+        <v>50</v>
+      </c>
+      <c r="C6" s="77">
+        <v>13</v>
+      </c>
+      <c r="D6" s="78">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="73" t="s">
+      <c r="B8" s="10">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10">
+        <v>100</v>
+      </c>
+      <c r="C9" s="10">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="10">
+        <v>50</v>
+      </c>
+      <c r="C10" s="10">
+        <v>13</v>
+      </c>
+      <c r="D10" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="9" customFormat="1">
+      <c r="A11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="32">
+        <v>40</v>
+      </c>
+      <c r="C11" s="32">
+        <v>8</v>
+      </c>
+      <c r="D11" s="33">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>2.6923076923076925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="17">
+        <v>50</v>
+      </c>
+      <c r="C13" s="17">
+        <v>20</v>
+      </c>
+      <c r="D13" s="18">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="17">
+        <v>20</v>
+      </c>
+      <c r="C14" s="17">
+        <v>5</v>
+      </c>
+      <c r="D14" s="18">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="17">
+        <v>30</v>
+      </c>
+      <c r="C15" s="17">
+        <v>10</v>
+      </c>
+      <c r="D15" s="18">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="17">
+        <v>40</v>
+      </c>
+      <c r="C16" s="17">
+        <v>20</v>
+      </c>
+      <c r="D16" s="18">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="10">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>6</v>
+      </c>
+      <c r="D17" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="10">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="10">
+        <v>80</v>
+      </c>
+      <c r="C19" s="10">
+        <v>20</v>
+      </c>
+      <c r="D19" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="10">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10">
+        <v>8</v>
+      </c>
+      <c r="D20" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="10">
+        <v>70</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20</v>
+      </c>
+      <c r="D21" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="9" customFormat="1">
+      <c r="A22" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="32">
+        <v>35</v>
+      </c>
+      <c r="C22" s="32">
+        <v>7</v>
+      </c>
+      <c r="D22" s="33">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="10">
+        <v>40</v>
+      </c>
+      <c r="C23" s="10">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="32">
+        <v>30</v>
+      </c>
+      <c r="C24" s="32">
+        <v>5</v>
+      </c>
+      <c r="D24" s="33">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="17">
         <v>45</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="26"/>
+      <c r="C25" s="17">
+        <v>13</v>
+      </c>
+      <c r="D25" s="18">
+        <f>Table71317[[#This Row],[Bus Value]]/Table71317[[#This Row],[Effort]]</f>
+        <v>3.4615384615384617</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D25">
+    <cfRule type="top10" priority="1" percent="1" rank="17"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54368902-1232-4BE4-BEB8-7008585DD8EB}">
+  <dimension ref="A1:G72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="90.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="73" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1">
+      <c r="A2" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="29">
+        <v>13</v>
+      </c>
+      <c r="C2" s="29">
+        <v>13</v>
+      </c>
+      <c r="D2" s="30">
+        <f>Table1322[[#This Row],[Bus Value]]/Table1322[[#This Row],[Effort]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1">
+      <c r="A3" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="29">
+        <v>40</v>
+      </c>
+      <c r="C3" s="29">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30">
+        <f>Table1322[[#This Row],[Bus Value]]/Table1322[[#This Row],[Effort]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1">
+      <c r="A4" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="29">
+        <v>30</v>
+      </c>
+      <c r="C4" s="29">
+        <v>12</v>
+      </c>
+      <c r="D4" s="30">
+        <f>Table1322[[#This Row],[Bus Value]]/Table1322[[#This Row],[Effort]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="54">
+        <v>35</v>
+      </c>
+      <c r="C5" s="56">
+        <v>14</v>
+      </c>
+      <c r="D5" s="82">
+        <f>Table1322[[#This Row],[Bus Value]]/Table1322[[#This Row],[Effort]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="54">
+        <f>SUBTOTAL(109,B11:B16)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="54"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="53"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="53"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="53"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="55"/>
+      <c r="B22" s="53"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="81"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="65"/>
+      <c r="B32" s="29">
+        <f>SUBTOTAL(109,B27:B31)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="65"/>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="65"/>
+      <c r="B34" s="29"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="65"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="81"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="34">
+        <f>SUBTOTAL(109,B43:B48)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="60"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="80"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="34">
+        <f>SUM(B59:B66)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="22"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A41:B41"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="top10" priority="1" percent="1" rank="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="top10" priority="6" percent="1" rank="17"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00ED129-411C-4542-997B-099F7CE86CCE}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="111.1640625" style="83" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="84"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="84"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="84"/>
+    </row>
+    <row r="10" spans="1:1" ht="14" customHeight="1"/>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="84" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>